--- a/ResultData.xlsx
+++ b/ResultData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S530859\Desktop\New folder (3)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{46EC361F-4D21-4CD6-B1C1-BEC7666E9C7A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FD06A608-43F4-4A6C-882B-FD1278A62C78}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16785" windowHeight="7095" xr2:uid="{594CB4BB-6132-45C5-B648-A0B439E2C545}"/>
   </bookViews>
@@ -17,12 +17,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$11</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$2:$E$12</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$F$2:$F$12</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$2:$E$12</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$F$2:$F$12</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -162,8 +156,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Word Count</a:t>
+              <a:t>Word</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Statistics</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1453,7 +1452,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1514,39 +1513,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="373075952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -2631,7 +2597,7 @@
   <dimension ref="E1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
